--- a/ValueSet-wellbeing-domains-example.xlsx
+++ b/ValueSet-wellbeing-domains-example.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-01-29T15:48:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
